--- a/pj_creator_2/res/xlsx/profession.xlsx
+++ b/pj_creator_2/res/xlsx/profession.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="4740"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,1003 +44,1003 @@
     <t>estudiante</t>
   </si>
   <si>
+    <t>3D printing technician</t>
+  </si>
+  <si>
+    <t>tecnico en impresion 3D</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>aerospace mechanic</t>
+  </si>
+  <si>
+    <t>mecanico aeroespacial</t>
+  </si>
+  <si>
+    <t>animal trainer</t>
+  </si>
+  <si>
+    <t>entrenador de animales</t>
+  </si>
+  <si>
+    <t>animator</t>
+  </si>
+  <si>
+    <t>animador</t>
+  </si>
+  <si>
+    <t>architect</t>
+  </si>
+  <si>
+    <t>arquitecto</t>
+  </si>
+  <si>
+    <t>artilleryman</t>
+  </si>
+  <si>
+    <t>soldado de artilleria</t>
+  </si>
+  <si>
+    <t>astronaut</t>
+  </si>
+  <si>
+    <t>astronauta</t>
+  </si>
+  <si>
+    <t>astronomer</t>
+  </si>
+  <si>
+    <t>astronomo</t>
+  </si>
+  <si>
+    <t>athlete</t>
+  </si>
+  <si>
+    <t>atleta</t>
+  </si>
+  <si>
+    <t>automation technician</t>
+  </si>
+  <si>
+    <t>tecnico en automatizacion</t>
+  </si>
+  <si>
+    <t>baker</t>
+  </si>
+  <si>
+    <t>panadero</t>
+  </si>
+  <si>
+    <t>barista</t>
+  </si>
+  <si>
+    <t>bartender</t>
+  </si>
+  <si>
+    <t>basket maker</t>
+  </si>
+  <si>
+    <t>cestero</t>
+  </si>
+  <si>
+    <t>beekeeper</t>
+  </si>
+  <si>
+    <t>apicultor</t>
+  </si>
+  <si>
+    <t>beggar</t>
+  </si>
+  <si>
+    <t>mendigo</t>
+  </si>
+  <si>
+    <t>biochemist</t>
+  </si>
+  <si>
+    <t>bioquimico</t>
+  </si>
+  <si>
+    <t>biologist</t>
+  </si>
+  <si>
+    <t>biologo</t>
+  </si>
+  <si>
+    <t>blacksmith</t>
+  </si>
+  <si>
+    <t>herrero</t>
+  </si>
+  <si>
+    <t>bodyguard</t>
+  </si>
+  <si>
+    <t>guardaespaldas</t>
+  </si>
+  <si>
+    <t>bootblack</t>
+  </si>
+  <si>
+    <t>lustrabotas</t>
+  </si>
+  <si>
+    <t>butcher</t>
+  </si>
+  <si>
+    <t>carnicero</t>
+  </si>
+  <si>
+    <t>butler</t>
+  </si>
+  <si>
+    <t>mayordomo</t>
+  </si>
+  <si>
+    <t>capitalist</t>
+  </si>
+  <si>
+    <t>capitalista</t>
+  </si>
+  <si>
+    <t>car painter</t>
+  </si>
+  <si>
+    <t>pintador de autos</t>
+  </si>
+  <si>
+    <t>caregiver</t>
+  </si>
+  <si>
+    <t>cuidador</t>
+  </si>
+  <si>
     <t>carpenter</t>
   </si>
   <si>
     <t>carpintero</t>
   </si>
   <si>
+    <t>cashier</t>
+  </si>
+  <si>
+    <t>cajero</t>
+  </si>
+  <si>
+    <t>casino dealer</t>
+  </si>
+  <si>
+    <t>ceramist</t>
+  </si>
+  <si>
+    <t>ceramista</t>
+  </si>
+  <si>
+    <t>chef</t>
+  </si>
+  <si>
+    <t>chemist</t>
+  </si>
+  <si>
+    <t>quimico</t>
+  </si>
+  <si>
+    <t>circus performer</t>
+  </si>
+  <si>
+    <t>cirquero</t>
+  </si>
+  <si>
+    <t>commando soldier</t>
+  </si>
+  <si>
+    <t>soldado comando</t>
+  </si>
+  <si>
+    <t>community manager</t>
+  </si>
+  <si>
+    <t>confectioner</t>
+  </si>
+  <si>
+    <t>confitero</t>
+  </si>
+  <si>
+    <t>construction engineer</t>
+  </si>
+  <si>
+    <t>ingiero en construccion</t>
+  </si>
+  <si>
+    <t>construction worker</t>
+  </si>
+  <si>
+    <t>albañil</t>
+  </si>
+  <si>
+    <t>dairy</t>
+  </si>
+  <si>
+    <t>lechero</t>
+  </si>
+  <si>
+    <t>dancer</t>
+  </si>
+  <si>
+    <t>bailarin</t>
+  </si>
+  <si>
+    <t>decorator</t>
+  </si>
+  <si>
+    <t>decorador</t>
+  </si>
+  <si>
+    <t>dentist</t>
+  </si>
+  <si>
+    <t>dentista</t>
+  </si>
+  <si>
+    <t>detective</t>
+  </si>
+  <si>
+    <t>diver</t>
+  </si>
+  <si>
+    <t>buzo</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>medico</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>dyer</t>
+  </si>
+  <si>
+    <t>tintorero</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>electricista</t>
+  </si>
+  <si>
+    <t>electronic technician</t>
+  </si>
+  <si>
+    <t>tecnico electronico</t>
+  </si>
+  <si>
+    <t>energy technician</t>
+  </si>
+  <si>
+    <t>tecnico en energias</t>
+  </si>
+  <si>
+    <t>environmentalist</t>
+  </si>
+  <si>
+    <t>ambientalista</t>
+  </si>
+  <si>
+    <t>event guide</t>
+  </si>
+  <si>
+    <t>guia de eventos</t>
+  </si>
+  <si>
+    <t>event host</t>
+  </si>
+  <si>
+    <t>animador de eventos</t>
+  </si>
+  <si>
+    <t>exterminator</t>
+  </si>
+  <si>
+    <t>exterminador</t>
+  </si>
+  <si>
+    <t>factory worker</t>
+  </si>
+  <si>
+    <t>trabajador de fabrica</t>
+  </si>
+  <si>
+    <t>falconer</t>
+  </si>
+  <si>
+    <t>halconero</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>agricultor</t>
+  </si>
+  <si>
+    <t>financial agent</t>
+  </si>
+  <si>
+    <t>agente financiero</t>
+  </si>
+  <si>
+    <t>firefighter</t>
+  </si>
+  <si>
+    <t>bombero</t>
+  </si>
+  <si>
+    <t>fisher</t>
+  </si>
+  <si>
+    <t>pescador</t>
+  </si>
+  <si>
+    <t>flourist</t>
+  </si>
+  <si>
+    <t>florista</t>
+  </si>
+  <si>
+    <t>gangster</t>
+  </si>
+  <si>
+    <t>mafioso</t>
+  </si>
+  <si>
+    <t>garbage collector</t>
+  </si>
+  <si>
+    <t>recolector de basura</t>
+  </si>
+  <si>
+    <t>gardener</t>
+  </si>
+  <si>
+    <t>jardinero</t>
+  </si>
+  <si>
+    <t>geneticist</t>
+  </si>
+  <si>
+    <t>genetista</t>
+  </si>
+  <si>
+    <t>geographer</t>
+  </si>
+  <si>
+    <t>geografo</t>
+  </si>
+  <si>
+    <t>glassmaker</t>
+  </si>
+  <si>
+    <t>cristalero</t>
+  </si>
+  <si>
+    <t>goldsmith</t>
+  </si>
+  <si>
+    <t>orfebre</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>guardia de seguridad</t>
+  </si>
+  <si>
+    <t>hairdresser</t>
+  </si>
+  <si>
+    <t>peluquero</t>
+  </si>
+  <si>
+    <t>handyman</t>
+  </si>
+  <si>
+    <t>reparador de chapuzas</t>
+  </si>
+  <si>
+    <t>historian</t>
+  </si>
+  <si>
+    <t>historiador</t>
+  </si>
+  <si>
+    <t>hitman</t>
+  </si>
+  <si>
+    <t>sicario</t>
+  </si>
+  <si>
+    <t>hostess</t>
+  </si>
+  <si>
+    <t>azafato</t>
+  </si>
+  <si>
+    <t>hotel bellboy</t>
+  </si>
+  <si>
+    <t>botones</t>
+  </si>
+  <si>
+    <t>human resources</t>
+  </si>
+  <si>
+    <t>recursos humanos</t>
+  </si>
+  <si>
+    <t>hunter</t>
+  </si>
+  <si>
+    <t>cazador</t>
+  </si>
+  <si>
+    <t>illustrator</t>
+  </si>
+  <si>
+    <t>ilustrador</t>
+  </si>
+  <si>
+    <t>infantryman</t>
+  </si>
+  <si>
+    <t>soldado de infanteria</t>
+  </si>
+  <si>
+    <t>inspector</t>
+  </si>
+  <si>
+    <t>instrument maker</t>
+  </si>
+  <si>
+    <t>creador de instrumentos</t>
+  </si>
+  <si>
+    <t>janitor</t>
+  </si>
+  <si>
+    <t>conserje</t>
+  </si>
+  <si>
+    <t>journalist</t>
+  </si>
+  <si>
+    <t>periodista</t>
+  </si>
+  <si>
+    <t>kinesiologist</t>
+  </si>
+  <si>
+    <t>kinesiologo</t>
+  </si>
+  <si>
+    <t>landowner</t>
+  </si>
+  <si>
+    <t>terrateniente</t>
+  </si>
+  <si>
+    <t>laundry man</t>
+  </si>
+  <si>
+    <t>lavandero</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>abogado</t>
+  </si>
+  <si>
+    <t>lifeguard</t>
+  </si>
+  <si>
+    <t>guardavidas</t>
+  </si>
+  <si>
+    <t>locksmith</t>
+  </si>
+  <si>
+    <t>cerrajero</t>
+  </si>
+  <si>
+    <t>logistics administrator</t>
+  </si>
+  <si>
+    <t>administrador logistico</t>
+  </si>
+  <si>
+    <t>logistics soldier</t>
+  </si>
+  <si>
+    <t>soldado logistico</t>
+  </si>
+  <si>
+    <t>lumberjack</t>
+  </si>
+  <si>
+    <t>leñador</t>
+  </si>
+  <si>
+    <t>machine operator</t>
+  </si>
+  <si>
+    <t>operador de maquinaria</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>gerente</t>
+  </si>
+  <si>
+    <t>manicurist</t>
+  </si>
+  <si>
+    <t>manicurista</t>
+  </si>
+  <si>
+    <t>marketer</t>
+  </si>
+  <si>
+    <t>marquetero</t>
+  </si>
+  <si>
+    <t>mathematician</t>
+  </si>
+  <si>
+    <t>matematico</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>comerciante</t>
+  </si>
+  <si>
+    <t>metallurgical engineer</t>
+  </si>
+  <si>
+    <t>ingeniero metalurgico</t>
+  </si>
+  <si>
+    <t>military pilot</t>
+  </si>
+  <si>
+    <t>piloto militar</t>
+  </si>
+  <si>
+    <t>military sailor</t>
+  </si>
+  <si>
+    <t>marinero militar</t>
+  </si>
+  <si>
+    <t>miner</t>
+  </si>
+  <si>
+    <t>minero</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>musician</t>
+  </si>
+  <si>
+    <t>musico</t>
+  </si>
+  <si>
+    <t>nuclear engineer</t>
+  </si>
+  <si>
+    <t>ingeniero nuclear</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>enfermero</t>
+  </si>
+  <si>
+    <t>nutritionist</t>
+  </si>
+  <si>
+    <t>nutricionista</t>
+  </si>
+  <si>
+    <t>office worker</t>
+  </si>
+  <si>
+    <t>trabajador de oficina</t>
+  </si>
+  <si>
+    <t>officer soldier</t>
+  </si>
+  <si>
+    <t>soldado oficial</t>
+  </si>
+  <si>
+    <t>painter</t>
+  </si>
+  <si>
+    <t>pintor</t>
+  </si>
+  <si>
+    <t>paramedic</t>
+  </si>
+  <si>
+    <t>paramedico</t>
+  </si>
+  <si>
+    <t>park ranger</t>
+  </si>
+  <si>
+    <t>guardabosques</t>
+  </si>
+  <si>
+    <t>pastry chef</t>
+  </si>
+  <si>
+    <t>pastelero</t>
+  </si>
+  <si>
+    <t>petroleum technician</t>
+  </si>
+  <si>
+    <t>tecnico en petroleo</t>
+  </si>
+  <si>
+    <t>pharmacist</t>
+  </si>
+  <si>
+    <t>farmaceutico</t>
+  </si>
+  <si>
+    <t>photographer</t>
+  </si>
+  <si>
+    <t>fotografo</t>
+  </si>
+  <si>
+    <t>physicist</t>
+  </si>
+  <si>
+    <t>fisico</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>piloto</t>
+  </si>
+  <si>
+    <t>plastic craftsman</t>
+  </si>
+  <si>
+    <t>artesano plastico</t>
+  </si>
+  <si>
+    <t>plumber</t>
+  </si>
+  <si>
+    <t>plomero</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>policia</t>
+  </si>
+  <si>
+    <t>polisher</t>
+  </si>
+  <si>
+    <t>pulidor</t>
+  </si>
+  <si>
+    <t>political</t>
+  </si>
+  <si>
+    <t>politico</t>
+  </si>
+  <si>
+    <t>priest</t>
+  </si>
+  <si>
+    <t>saserdote</t>
+  </si>
+  <si>
+    <t>prison guard</t>
+  </si>
+  <si>
+    <t>guardia de prision</t>
+  </si>
+  <si>
+    <t>programmer</t>
+  </si>
+  <si>
+    <t>programador</t>
+  </si>
+  <si>
+    <t>psychologist</t>
+  </si>
+  <si>
+    <t>psicologo</t>
+  </si>
+  <si>
+    <t>raider</t>
+  </si>
+  <si>
+    <t>asaltante</t>
+  </si>
+  <si>
+    <t>rancher</t>
+  </si>
+  <si>
+    <t>ranchero</t>
+  </si>
+  <si>
+    <t>real estate agent</t>
+  </si>
+  <si>
+    <t>agente inmoviliario</t>
+  </si>
+  <si>
+    <t>receptionist</t>
+  </si>
+  <si>
+    <t>recepcionista</t>
+  </si>
+  <si>
+    <t>rescuer</t>
+  </si>
+  <si>
+    <t>rescatista</t>
+  </si>
+  <si>
+    <t>sailor</t>
+  </si>
+  <si>
+    <t>marinero</t>
+  </si>
+  <si>
+    <t>Salesperson</t>
+  </si>
+  <si>
+    <t>vendedor</t>
+  </si>
+  <si>
+    <t>scort</t>
+  </si>
+  <si>
+    <t>acompañante</t>
+  </si>
+  <si>
+    <t>secretary</t>
+  </si>
+  <si>
+    <t>secretario</t>
+  </si>
+  <si>
+    <t>shipbuilder</t>
+  </si>
+  <si>
+    <t>constructor naval</t>
+  </si>
+  <si>
+    <t>shoemaker</t>
+  </si>
+  <si>
+    <t>zapatero</t>
+  </si>
+  <si>
+    <t>social worker</t>
+  </si>
+  <si>
+    <t>trabajador social</t>
+  </si>
+  <si>
+    <t>sociologist</t>
+  </si>
+  <si>
+    <t>sociologo</t>
+  </si>
+  <si>
+    <t>spy</t>
+  </si>
+  <si>
+    <t>espia</t>
+  </si>
+  <si>
+    <t>statistician</t>
+  </si>
+  <si>
+    <t>stadistico</t>
+  </si>
+  <si>
+    <t>stonecutter</t>
+  </si>
+  <si>
+    <t>cantero</t>
+  </si>
+  <si>
+    <t>streamer</t>
+  </si>
+  <si>
+    <t>swat</t>
+  </si>
+  <si>
+    <t>swindler</t>
+  </si>
+  <si>
+    <t>estafador</t>
+  </si>
+  <si>
+    <t>tailor</t>
+  </si>
+  <si>
+    <t>sastre</t>
+  </si>
+  <si>
+    <t>tank crew</t>
+  </si>
+  <si>
+    <t>tripulante de tanque</t>
+  </si>
+  <si>
+    <t>tanner</t>
+  </si>
+  <si>
+    <t>curtidor</t>
+  </si>
+  <si>
+    <t>tattoo artist</t>
+  </si>
+  <si>
+    <t>tatuador</t>
+  </si>
+  <si>
+    <t>taxidermist</t>
+  </si>
+  <si>
+    <t>taxidermista</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>profesor</t>
+  </si>
+  <si>
+    <t>technical telecom</t>
+  </si>
+  <si>
+    <t>tecnico en telecom</t>
+  </si>
+  <si>
+    <t>thanatologist</t>
+  </si>
+  <si>
+    <t>tanatologo</t>
+  </si>
+  <si>
+    <t>thief</t>
+  </si>
+  <si>
+    <t>ladron</t>
+  </si>
+  <si>
+    <t>tour guide</t>
+  </si>
+  <si>
+    <t>guia turistico</t>
+  </si>
+  <si>
+    <t>toy craftsman</t>
+  </si>
+  <si>
+    <t>artesano de juguetes</t>
+  </si>
+  <si>
+    <t>tracker</t>
+  </si>
+  <si>
+    <t>rastreador</t>
+  </si>
+  <si>
+    <t>translator</t>
+  </si>
+  <si>
+    <t>traductor</t>
+  </si>
+  <si>
+    <t>upholsterer</t>
+  </si>
+  <si>
+    <t>tapicero</t>
+  </si>
+  <si>
+    <t>veterinarian</t>
+  </si>
+  <si>
+    <t>veterinario</t>
+  </si>
+  <si>
+    <t>video editor</t>
+  </si>
+  <si>
+    <t>editor de video</t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>mesero</t>
+  </si>
+  <si>
+    <t>warehouse manager</t>
+  </si>
+  <si>
+    <t>bodeguero</t>
+  </si>
+  <si>
+    <t>warlock</t>
+  </si>
+  <si>
+    <t>brujo</t>
+  </si>
+  <si>
+    <t>weapons engineer</t>
+  </si>
+  <si>
+    <t>ingeniero en armamento</t>
+  </si>
+  <si>
+    <t>weaver</t>
+  </si>
+  <si>
+    <t>tejedor</t>
+  </si>
+  <si>
     <t>welder</t>
   </si>
   <si>
     <t>soldador</t>
   </si>
   <si>
-    <t>polisher</t>
-  </si>
-  <si>
-    <t>pulidor</t>
-  </si>
-  <si>
-    <t>stonecutter</t>
-  </si>
-  <si>
-    <t>cantero</t>
-  </si>
-  <si>
-    <t>handyman</t>
-  </si>
-  <si>
-    <t>reparador de chapuzas</t>
-  </si>
-  <si>
-    <t>instrument maker</t>
-  </si>
-  <si>
-    <t>creador de instrumentos</t>
-  </si>
-  <si>
-    <t>basket maker</t>
-  </si>
-  <si>
-    <t>cestero</t>
-  </si>
-  <si>
-    <t>plastic craftsman</t>
-  </si>
-  <si>
-    <t>artesano plastico</t>
-  </si>
-  <si>
-    <t>locksmith</t>
-  </si>
-  <si>
-    <t>cerrajero</t>
-  </si>
-  <si>
-    <t>car painter</t>
-  </si>
-  <si>
-    <t>pintador de autos</t>
-  </si>
-  <si>
-    <t>upholsterer</t>
-  </si>
-  <si>
-    <t>tapicero</t>
-  </si>
-  <si>
-    <t>bootblack</t>
-  </si>
-  <si>
-    <t>lustrabotas</t>
-  </si>
-  <si>
-    <t>3D printing technician</t>
-  </si>
-  <si>
-    <t>tecnico en impresion 3D</t>
-  </si>
-  <si>
-    <t>toy craftsman</t>
-  </si>
-  <si>
-    <t>artesano de juguetes</t>
-  </si>
-  <si>
-    <t>automation technician</t>
-  </si>
-  <si>
-    <t>tecnico en automatizacion</t>
-  </si>
-  <si>
-    <t>electronic technician</t>
-  </si>
-  <si>
-    <t>tecnico electronico</t>
-  </si>
-  <si>
-    <t>aerospace mechanic</t>
-  </si>
-  <si>
-    <t>mecanico aeroespacial</t>
-  </si>
-  <si>
-    <t>shipbuilder</t>
-  </si>
-  <si>
-    <t>constructor naval</t>
-  </si>
-  <si>
-    <t>astronaut</t>
-  </si>
-  <si>
-    <t>astronauta</t>
-  </si>
-  <si>
-    <t>weapons engineer</t>
-  </si>
-  <si>
-    <t>ingeniero en armamento</t>
-  </si>
-  <si>
-    <t>technical telecom</t>
-  </si>
-  <si>
-    <t>tecnico en telecom</t>
-  </si>
-  <si>
-    <t>programmer</t>
-  </si>
-  <si>
-    <t>programador</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>agricultor</t>
-  </si>
-  <si>
-    <t>lumberjack</t>
-  </si>
-  <si>
-    <t>leñador</t>
-  </si>
-  <si>
-    <t>gardener</t>
-  </si>
-  <si>
-    <t>jardinero</t>
-  </si>
-  <si>
-    <t>flourist</t>
-  </si>
-  <si>
-    <t>florista</t>
-  </si>
-  <si>
-    <t>veterinarian</t>
-  </si>
-  <si>
-    <t>veterinario</t>
-  </si>
-  <si>
-    <t>taxidermist</t>
-  </si>
-  <si>
-    <t>taxidermista</t>
-  </si>
-  <si>
-    <t>animal trainer</t>
-  </si>
-  <si>
-    <t>entrenador de animales</t>
-  </si>
-  <si>
-    <t>beekeeper</t>
-  </si>
-  <si>
-    <t>apicultor</t>
-  </si>
-  <si>
-    <t>rancher</t>
-  </si>
-  <si>
-    <t>ranchero</t>
-  </si>
-  <si>
-    <t>environmentalist</t>
-  </si>
-  <si>
-    <t>ambientalista</t>
-  </si>
-  <si>
-    <t>chef</t>
-  </si>
-  <si>
-    <t>hunter</t>
-  </si>
-  <si>
-    <t>cazador</t>
-  </si>
-  <si>
-    <t>nutritionist</t>
-  </si>
-  <si>
-    <t>nutricionista</t>
-  </si>
-  <si>
-    <t>bartender</t>
-  </si>
-  <si>
-    <t>barista</t>
-  </si>
-  <si>
-    <t>butcher</t>
-  </si>
-  <si>
-    <t>carnicero</t>
-  </si>
-  <si>
-    <t>baker</t>
-  </si>
-  <si>
-    <t>panadero</t>
-  </si>
-  <si>
-    <t>pastry chef</t>
-  </si>
-  <si>
-    <t>pastelero</t>
-  </si>
-  <si>
-    <t>confectioner</t>
-  </si>
-  <si>
-    <t>confitero</t>
-  </si>
-  <si>
-    <t>dairy</t>
-  </si>
-  <si>
-    <t>lechero</t>
-  </si>
-  <si>
-    <t>biochemist</t>
-  </si>
-  <si>
-    <t>bioquimico</t>
-  </si>
-  <si>
-    <t>geneticist</t>
-  </si>
-  <si>
-    <t>genetista</t>
-  </si>
-  <si>
-    <t>pharmacist</t>
-  </si>
-  <si>
-    <t>farmaceutico</t>
-  </si>
-  <si>
-    <t>biologist</t>
-  </si>
-  <si>
-    <t>biologo</t>
-  </si>
-  <si>
-    <t>fisher</t>
-  </si>
-  <si>
-    <t>pescador</t>
-  </si>
-  <si>
-    <t>diver</t>
-  </si>
-  <si>
-    <t>buzo</t>
-  </si>
-  <si>
-    <t>sailor</t>
-  </si>
-  <si>
-    <t>marinero</t>
-  </si>
-  <si>
-    <t>military sailor</t>
-  </si>
-  <si>
-    <t>marinero militar</t>
-  </si>
-  <si>
-    <t>construction engineer</t>
-  </si>
-  <si>
-    <t>ingiero en construccion</t>
-  </si>
-  <si>
-    <t>architect</t>
-  </si>
-  <si>
-    <t>arquitecto</t>
-  </si>
-  <si>
-    <t>construction worker</t>
-  </si>
-  <si>
-    <t>albañil</t>
-  </si>
-  <si>
-    <t>energy technician</t>
-  </si>
-  <si>
-    <t>tecnico en energias</t>
-  </si>
-  <si>
-    <t>plumber</t>
-  </si>
-  <si>
-    <t>plomero</t>
-  </si>
-  <si>
-    <t>electrician</t>
-  </si>
-  <si>
-    <t>electricista</t>
-  </si>
-  <si>
-    <t>political</t>
-  </si>
-  <si>
-    <t>politico</t>
-  </si>
-  <si>
-    <t>lawyer</t>
-  </si>
-  <si>
-    <t>abogado</t>
-  </si>
-  <si>
-    <t>petroleum technician</t>
-  </si>
-  <si>
-    <t>tecnico en petroleo</t>
-  </si>
-  <si>
-    <t>miner</t>
-  </si>
-  <si>
-    <t>minero</t>
-  </si>
-  <si>
-    <t>exterminator</t>
-  </si>
-  <si>
-    <t>exterminador</t>
-  </si>
-  <si>
-    <t>janitor</t>
-  </si>
-  <si>
-    <t>conserje</t>
-  </si>
-  <si>
-    <t>laundry man</t>
-  </si>
-  <si>
-    <t>lavandero</t>
-  </si>
-  <si>
-    <t>garbage collector</t>
-  </si>
-  <si>
-    <t>recolector de basura</t>
-  </si>
-  <si>
-    <t>metallurgical engineer</t>
-  </si>
-  <si>
-    <t>ingeniero metalurgico</t>
-  </si>
-  <si>
-    <t>blacksmith</t>
-  </si>
-  <si>
-    <t>herrero</t>
-  </si>
-  <si>
-    <t>chemist</t>
-  </si>
-  <si>
-    <t>quimico</t>
-  </si>
-  <si>
-    <t>ceramist</t>
-  </si>
-  <si>
-    <t>ceramista</t>
-  </si>
-  <si>
-    <t>glassmaker</t>
-  </si>
-  <si>
-    <t>cristalero</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>policia</t>
-  </si>
-  <si>
-    <t>bodyguard</t>
-  </si>
-  <si>
-    <t>guardaespaldas</t>
-  </si>
-  <si>
-    <t>prison guard</t>
-  </si>
-  <si>
-    <t>guardia de prision</t>
-  </si>
-  <si>
-    <t>guard</t>
-  </si>
-  <si>
-    <t>guardia de seguridad</t>
-  </si>
-  <si>
-    <t>swat</t>
-  </si>
-  <si>
-    <t>detective</t>
-  </si>
-  <si>
-    <t>spy</t>
-  </si>
-  <si>
-    <t>espia</t>
-  </si>
-  <si>
-    <t>inspector</t>
-  </si>
-  <si>
-    <t>infantryman</t>
-  </si>
-  <si>
-    <t>soldado de infanteria</t>
-  </si>
-  <si>
-    <t>artilleryman</t>
-  </si>
-  <si>
-    <t>soldado de artilleria</t>
-  </si>
-  <si>
-    <t>officer soldier</t>
-  </si>
-  <si>
-    <t>soldado oficial</t>
-  </si>
-  <si>
-    <t>tank crew</t>
-  </si>
-  <si>
-    <t>tripulante de tanque</t>
-  </si>
-  <si>
-    <t>logistics soldier</t>
-  </si>
-  <si>
-    <t>soldado logistico</t>
-  </si>
-  <si>
-    <t>commando soldier</t>
-  </si>
-  <si>
-    <t>soldado comando</t>
-  </si>
-  <si>
-    <t>paramedic</t>
-  </si>
-  <si>
-    <t>paramedico</t>
-  </si>
-  <si>
-    <t>firefighter</t>
-  </si>
-  <si>
-    <t>bombero</t>
-  </si>
-  <si>
-    <t>rescuer</t>
-  </si>
-  <si>
-    <t>rescatista</t>
-  </si>
-  <si>
-    <t>warlock</t>
-  </si>
-  <si>
-    <t>brujo</t>
-  </si>
-  <si>
-    <t>lifeguard</t>
-  </si>
-  <si>
-    <t>guardavidas</t>
-  </si>
-  <si>
-    <t>park ranger</t>
-  </si>
-  <si>
-    <t>guardabosques</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
-    <t>journalist</t>
-  </si>
-  <si>
-    <t>periodista</t>
-  </si>
-  <si>
-    <t>translator</t>
-  </si>
-  <si>
-    <t>traductor</t>
-  </si>
-  <si>
     <t>writer</t>
   </si>
   <si>
     <t>escritor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>modelo</t>
-  </si>
-  <si>
-    <t>dancer</t>
-  </si>
-  <si>
-    <t>bailarin</t>
-  </si>
-  <si>
-    <t>event host</t>
-  </si>
-  <si>
-    <t>animador de eventos</t>
-  </si>
-  <si>
-    <t>circus performer</t>
-  </si>
-  <si>
-    <t>cirquero</t>
-  </si>
-  <si>
-    <t>streamer</t>
-  </si>
-  <si>
-    <t>scort</t>
-  </si>
-  <si>
-    <t>acompañante</t>
-  </si>
-  <si>
-    <t>Salesperson</t>
-  </si>
-  <si>
-    <t>vendedor</t>
-  </si>
-  <si>
-    <t>cashier</t>
-  </si>
-  <si>
-    <t>cajero</t>
-  </si>
-  <si>
-    <t>waiter</t>
-  </si>
-  <si>
-    <t>mesero</t>
-  </si>
-  <si>
-    <t>hostess</t>
-  </si>
-  <si>
-    <t>azafato</t>
-  </si>
-  <si>
-    <t>receptionist</t>
-  </si>
-  <si>
-    <t>recepcionista</t>
-  </si>
-  <si>
-    <t>casino dealer</t>
-  </si>
-  <si>
-    <t>event guide</t>
-  </si>
-  <si>
-    <t>guia de eventos</t>
-  </si>
-  <si>
-    <t>hotel bellboy</t>
-  </si>
-  <si>
-    <t>botones</t>
-  </si>
-  <si>
-    <t>community manager</t>
-  </si>
-  <si>
-    <t>tour guide</t>
-  </si>
-  <si>
-    <t>guia turistico</t>
-  </si>
-  <si>
-    <t>priest</t>
-  </si>
-  <si>
-    <t>saserdote</t>
-  </si>
-  <si>
-    <t>hairdresser</t>
-  </si>
-  <si>
-    <t>peluquero</t>
-  </si>
-  <si>
-    <t>manicurist</t>
-  </si>
-  <si>
-    <t>manicurista</t>
-  </si>
-  <si>
-    <t>decorator</t>
-  </si>
-  <si>
-    <t>decorador</t>
-  </si>
-  <si>
-    <t>illustrator</t>
-  </si>
-  <si>
-    <t>ilustrador</t>
-  </si>
-  <si>
-    <t>tattoo artist</t>
-  </si>
-  <si>
-    <t>tatuador</t>
-  </si>
-  <si>
-    <t>animator</t>
-  </si>
-  <si>
-    <t>animador</t>
-  </si>
-  <si>
-    <t>painter</t>
-  </si>
-  <si>
-    <t>pintor</t>
-  </si>
-  <si>
-    <t>photographer</t>
-  </si>
-  <si>
-    <t>fotografo</t>
-  </si>
-  <si>
-    <t>video editor</t>
-  </si>
-  <si>
-    <t>editor de video</t>
-  </si>
-  <si>
-    <t>tailor</t>
-  </si>
-  <si>
-    <t>sastre</t>
-  </si>
-  <si>
-    <t>shoemaker</t>
-  </si>
-  <si>
-    <t>zapatero</t>
-  </si>
-  <si>
-    <t>weaver</t>
-  </si>
-  <si>
-    <t>tejedor</t>
-  </si>
-  <si>
-    <t>tanner</t>
-  </si>
-  <si>
-    <t>curtidor</t>
-  </si>
-  <si>
-    <t>dyer</t>
-  </si>
-  <si>
-    <t>tintorero</t>
-  </si>
-  <si>
-    <t>dentist</t>
-  </si>
-  <si>
-    <t>dentista</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>medico</t>
-  </si>
-  <si>
-    <t>kinesiologist</t>
-  </si>
-  <si>
-    <t>kinesiologo</t>
-  </si>
-  <si>
-    <t>thanatologist</t>
-  </si>
-  <si>
-    <t>tanatologo</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>profesor</t>
-  </si>
-  <si>
-    <t>psychologist</t>
-  </si>
-  <si>
-    <t>psicologo</t>
-  </si>
-  <si>
-    <t>caregiver</t>
-  </si>
-  <si>
-    <t>cuidador</t>
-  </si>
-  <si>
-    <t>nurse</t>
-  </si>
-  <si>
-    <t>enfermero</t>
-  </si>
-  <si>
-    <t>social worker</t>
-  </si>
-  <si>
-    <t>trabajador social</t>
-  </si>
-  <si>
-    <t>financial agent</t>
-  </si>
-  <si>
-    <t>agente financiero</t>
-  </si>
-  <si>
-    <t>marketer</t>
-  </si>
-  <si>
-    <t>marquetero</t>
-  </si>
-  <si>
-    <t>real estate agent</t>
-  </si>
-  <si>
-    <t>agente inmoviliario</t>
-  </si>
-  <si>
-    <t>logistics administrator</t>
-  </si>
-  <si>
-    <t>administrador logistico</t>
-  </si>
-  <si>
-    <t>warehouse manager</t>
-  </si>
-  <si>
-    <t>bodeguero</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>gerente</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
-    <t>comerciante</t>
-  </si>
-  <si>
-    <t>secretary</t>
-  </si>
-  <si>
-    <t>secretario</t>
-  </si>
-  <si>
-    <t>butler</t>
-  </si>
-  <si>
-    <t>mayordomo</t>
-  </si>
-  <si>
-    <t>human resources</t>
-  </si>
-  <si>
-    <t>recursos humanos</t>
-  </si>
-  <si>
-    <t>statistician</t>
-  </si>
-  <si>
-    <t>stadistico</t>
-  </si>
-  <si>
-    <t>accountant</t>
-  </si>
-  <si>
-    <t>contador</t>
-  </si>
-  <si>
-    <t>mathematician</t>
-  </si>
-  <si>
-    <t>matematico</t>
-  </si>
-  <si>
-    <t>physicist</t>
-  </si>
-  <si>
-    <t>fisico</t>
-  </si>
-  <si>
-    <t>nuclear engineer</t>
-  </si>
-  <si>
-    <t>ingeniero nuclear</t>
-  </si>
-  <si>
-    <t>military pilot</t>
-  </si>
-  <si>
-    <t>piloto militar</t>
-  </si>
-  <si>
-    <t>pilot</t>
-  </si>
-  <si>
-    <t>piloto</t>
-  </si>
-  <si>
-    <t>machine operator</t>
-  </si>
-  <si>
-    <t>operador de maquinaria</t>
-  </si>
-  <si>
-    <t>driver</t>
-  </si>
-  <si>
-    <t>conductor</t>
-  </si>
-  <si>
-    <t>factory worker</t>
-  </si>
-  <si>
-    <t>trabajador de fabrica</t>
-  </si>
-  <si>
-    <t>office worker</t>
-  </si>
-  <si>
-    <t>trabajador de oficina</t>
-  </si>
-  <si>
-    <t>athlete</t>
-  </si>
-  <si>
-    <t>atleta</t>
-  </si>
-  <si>
-    <t>musician</t>
-  </si>
-  <si>
-    <t>musico</t>
-  </si>
-  <si>
-    <t>historian</t>
-  </si>
-  <si>
-    <t>historiador</t>
-  </si>
-  <si>
-    <t>astronomer</t>
-  </si>
-  <si>
-    <t>astronomo</t>
-  </si>
-  <si>
-    <t>sociologist</t>
-  </si>
-  <si>
-    <t>sociologo</t>
-  </si>
-  <si>
-    <t>geographer</t>
-  </si>
-  <si>
-    <t>geografo</t>
-  </si>
-  <si>
-    <t>gangster</t>
-  </si>
-  <si>
-    <t>mafioso</t>
-  </si>
-  <si>
-    <t>hitman</t>
-  </si>
-  <si>
-    <t>sicario</t>
-  </si>
-  <si>
-    <t>thief</t>
-  </si>
-  <si>
-    <t>ladron</t>
-  </si>
-  <si>
-    <t>swindler</t>
-  </si>
-  <si>
-    <t>estafador</t>
-  </si>
-  <si>
-    <t>raider</t>
-  </si>
-  <si>
-    <t>asaltante</t>
-  </si>
-  <si>
-    <t>beggar</t>
-  </si>
-  <si>
-    <t>mendigo</t>
-  </si>
-  <si>
-    <t>falconer</t>
-  </si>
-  <si>
-    <t>halconero</t>
-  </si>
-  <si>
-    <t>tracker</t>
-  </si>
-  <si>
-    <t>rastreador</t>
-  </si>
-  <si>
-    <t>landowner</t>
-  </si>
-  <si>
-    <t>terrateniente</t>
-  </si>
-  <si>
-    <t>capitalist</t>
-  </si>
-  <si>
-    <t>capitalista</t>
-  </si>
-  <si>
-    <t>goldsmith</t>
-  </si>
-  <si>
-    <t>orfebre</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1977,8 @@
   <sheetPr/>
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="115" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="115" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.25" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2038,1060 +2038,1060 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" t="s">
         <v>185</v>
-      </c>
-      <c r="B97" t="s">
-        <v>185</v>
-      </c>
-      <c r="C97" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" t="s">
         <v>187</v>
-      </c>
-      <c r="B98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C98" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" t="s">
         <v>189</v>
-      </c>
-      <c r="B99" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" t="s">
         <v>191</v>
-      </c>
-      <c r="B100" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
         <v>193</v>
@@ -3171,466 +3171,466 @@
         <v>206</v>
       </c>
       <c r="C108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C110" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C114" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B117" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C117" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C119" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C120" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C121" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B122" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C122" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C123" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C124" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C125" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C126" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C127" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C128" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B129" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C131" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B132" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C132" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B133" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C133" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B137" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C138" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C139" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C141" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C143" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C144" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C145" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B146" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C146" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B147" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C147" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C148" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B149" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C149" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C150" t="s">
         <v>289</v>
@@ -3901,6 +3901,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C174">
+    <sortCondition ref="A2:A174"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
